--- a/database/industries/darou/derazak/balancesheet/quarterly.xlsx
+++ b/database/industries/darou/derazak/balancesheet/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\derazak\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\derazak\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCB5A46-B796-4DBD-81B8-CCF4DE4F008F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7290"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +266,6 @@
       <sz val="32"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -280,7 +280,6 @@
       <sz val="11"/>
       <color rgb="FF777777"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -449,7 +448,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -461,7 +460,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -508,6 +507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -543,6 +559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,12 +727,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -710,7 +743,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,7 +757,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,7 +773,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -756,7 +789,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -770,7 +803,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -786,7 +819,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -802,7 +835,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -816,7 +849,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -852,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -888,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -902,7 +935,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -918,7 +951,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
@@ -954,7 +987,7 @@
         <v>260319</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -990,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1026,7 +1059,7 @@
         <v>14268827</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1062,7 +1095,7 @@
         <v>2557102</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1098,7 +1131,7 @@
         <v>891232</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1134,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1203,7 @@
         <v>17977480</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1206,7 +1239,7 @@
         <v>31493</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1242,7 +1275,7 @@
         <v>306542</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1278,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1314,7 +1347,7 @@
         <v>632909</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1350,7 +1383,7 @@
         <v>55796</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +1419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1422,7 +1455,7 @@
         <v>82800</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
@@ -1458,7 +1491,7 @@
         <v>1109540</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
@@ -1494,7 +1527,7 @@
         <v>19087020</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1510,7 +1543,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
@@ -1546,7 +1579,7 @@
         <v>3925639</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1582,7 +1615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
@@ -1618,7 +1651,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1654,7 +1687,7 @@
         <v>658777</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1690,7 +1723,7 @@
         <v>1961336</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1726,7 +1759,7 @@
         <v>6397755</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1762,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1798,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
@@ -1834,7 +1867,7 @@
         <v>12945371</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1870,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1906,7 +1939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1942,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -1978,7 +2011,7 @@
         <v>275960</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
@@ -2014,7 +2047,7 @@
         <v>275960</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
@@ -2050,7 +2083,7 @@
         <v>13221331</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2066,7 +2099,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2102,7 +2135,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2138,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2174,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2210,7 +2243,7 @@
         <v>-91960</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2246,7 +2279,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2282,7 +2315,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2318,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2354,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2390,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2426,7 +2459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2462,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2498,7 +2531,7 @@
         <v>3643237</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
@@ -2534,7 +2567,7 @@
         <v>5865689</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
@@ -2570,7 +2603,7 @@
         <v>19087020</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
